--- a/individual_results/avey/8.xlsx
+++ b/individual_results/avey/8.xlsx
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0.3333333333333333</v>
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0.5</v>
@@ -721,9 +721,7 @@
         <v>0.5</v>
       </c>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
-        <v>0.4</v>
-      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
         <v>0.4</v>
       </c>
@@ -778,9 +776,7 @@
         <v>0.5</v>
       </c>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
-        <v>0.4545454545454545</v>
-      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
         <v>0.4545454545454545</v>
       </c>
@@ -848,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.41311732856428</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0.8262346571285599</v>
@@ -994,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="b">
         <v>1</v>
@@ -1067,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="b">
         <v>1</v>
@@ -1121,9 +1117,7 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
-        <v>3</v>
-      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
         <v>1</v>
       </c>
